--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ01_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ01_BaselineBilateralCustomer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_scotia\DataSet\LoanIQ_DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u722178\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FCF9E2-A399-453E-9819-9C540F3C31BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F9C70-5C02-43A8-A8DB-CB8E8F403C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIG03_Customer" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="655">
   <si>
     <t>rowid</t>
   </si>
@@ -1995,6 +1995,9 @@
   </si>
   <si>
     <t>John Bloggs</t>
+  </si>
+  <si>
+    <t>Days</t>
   </si>
 </sst>
 </file>
@@ -3862,11 +3865,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3910,7 +3913,7 @@
     <col min="38" max="38" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4025,8 +4028,11 @@
       <c r="AL1" s="3" t="s">
         <v>498</v>
       </c>
+      <c r="AM1" s="3" t="s">
+        <v>654</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -4135,8 +4141,11 @@
       <c r="AL2" s="1" t="s">
         <v>517</v>
       </c>
+      <c r="AM2" s="1">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C3" s="12"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -4144,14 +4153,14 @@
       <c r="AC3" s="46"/>
       <c r="AH3" s="32"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="X4" s="28"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="X5" s="28"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
@@ -5427,8 +5436,8 @@
   </sheetPr>
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ01_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ01_BaselineBilateralCustomer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u722178\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F9C70-5C02-43A8-A8DB-CB8E8F403C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE5DF89-E819-4B66-9052-DF1F5442A270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIG03_Customer" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="656">
   <si>
     <t>rowid</t>
   </si>
@@ -1998,6 +1998,9 @@
   </si>
   <si>
     <t>Days</t>
+  </si>
+  <si>
+    <t>BORROWER1111</t>
   </si>
 </sst>
 </file>
@@ -3867,9 +3870,9 @@
   </sheetPr>
   <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
+      <selection pane="topRight" activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4181,9 +4184,9 @@
   </sheetPr>
   <dimension ref="A1:CI2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CG20" sqref="CG20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4569,7 +4572,7 @@
         <v>337</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>151</v>
+        <v>655</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>181</v>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ01_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ01_BaselineBilateralCustomer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE5DF89-E819-4B66-9052-DF1F5442A270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22DAF5B-6D21-49D1-948C-B50E868F9C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIG03_Customer" sheetId="1" r:id="rId1"/>
@@ -3522,8 +3522,8 @@
   </sheetPr>
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1"/>
+    <sheetView topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,7 +3740,7 @@
         <v>613</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>151</v>
+        <v>655</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>501</v>
@@ -3755,7 +3755,7 @@
         <v>151</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>151</v>
+        <v>655</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>616</v>
@@ -3870,9 +3870,9 @@
   </sheetPr>
   <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4070,7 +4070,7 @@
         <v>513</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>151</v>
+        <v>655</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>516</v>
@@ -4184,9 +4184,9 @@
   </sheetPr>
   <dimension ref="A1:CI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4808,10 +4808,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5028,7 +5028,7 @@
         <v>182</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>151</v>
+        <v>655</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>367</v>
@@ -5055,10 +5055,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5228,8 +5228,8 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T30" sqref="T30"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5439,8 +5439,8 @@
   </sheetPr>
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5655,10 +5655,10 @@
         <v>500</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>151</v>
+        <v>655</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>151</v>
+        <v>655</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>415</v>
@@ -5780,7 +5780,9 @@
   </sheetPr>
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6095,7 +6097,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6163,8 +6165,8 @@
   <dimension ref="A1:CW2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A38" sqref="A38"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6427,7 +6429,7 @@
         <v>584</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>151</v>
+        <v>655</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>415</v>
@@ -6448,7 +6450,7 @@
         <v>513</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>152</v>
+        <v>655</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>160</v>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ01_BaselineBilateralCustomer.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ01_BaselineBilateralCustomer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u722178\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F9C70-5C02-43A8-A8DB-CB8E8F403C54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E2AC9B-6049-43B5-9A17-B3348816685C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12885" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORIG03_Customer" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="655">
   <si>
     <t>rowid</t>
   </si>
@@ -2531,8 +2531,8 @@
   </sheetPr>
   <dimension ref="A1:EI2"/>
   <sheetViews>
-    <sheetView topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP18" sqref="BP18"/>
+    <sheetView topLeftCell="EE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="EH1" sqref="EH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3517,10 +3517,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1"/>
+    <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV16" sqref="AV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3571,7 +3571,7 @@
     <col min="46" max="46" width="40.85546875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -3713,8 +3713,11 @@
       <c r="AU1" s="44" t="s">
         <v>611</v>
       </c>
+      <c r="AV1" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -3849,8 +3852,11 @@
       <c r="AU2" s="1" t="s">
         <v>626</v>
       </c>
+      <c r="AV2" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="N4" s="45"/>
     </row>
   </sheetData>
@@ -3865,11 +3871,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM3" sqref="AM3"/>
+      <pane xSplit="2" topLeftCell="AL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3913,7 +3919,7 @@
     <col min="38" max="38" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4031,8 +4037,11 @@
       <c r="AM1" s="3" t="s">
         <v>654</v>
       </c>
+      <c r="AN1" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -4144,8 +4153,11 @@
       <c r="AM2" s="1">
         <v>30</v>
       </c>
+      <c r="AN2" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C3" s="12"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -4153,14 +4165,14 @@
       <c r="AC3" s="46"/>
       <c r="AH3" s="32"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="X4" s="28"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="X5" s="28"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
@@ -4179,11 +4191,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CI2"/>
+  <dimension ref="A1:CJ2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CG20" sqref="CG20"/>
+      <pane xSplit="2" topLeftCell="CI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CJ1" sqref="CJ1:CJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4271,7 +4283,7 @@
     <col min="87" max="87" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4533,8 +4545,11 @@
       <c r="CI1" s="3" t="s">
         <v>331</v>
       </c>
+      <c r="CJ1" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -4788,6 +4803,9 @@
       </c>
       <c r="CI2" t="s">
         <v>380</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4802,13 +4820,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="AG1" sqref="AG1:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4844,7 +4862,7 @@
     <col min="32" max="32" width="24.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -4941,8 +4959,11 @@
       <c r="AF1" s="27" t="s">
         <v>407</v>
       </c>
+      <c r="AG1" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -5035,6 +5056,9 @@
       </c>
       <c r="AF2" s="28" t="s">
         <v>368</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -5049,13 +5073,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5080,7 +5104,7 @@
     <col min="21" max="21" width="25.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5144,8 +5168,11 @@
       <c r="U1" s="3" t="s">
         <v>435</v>
       </c>
+      <c r="V1" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -5208,6 +5235,9 @@
       </c>
       <c r="U2" s="1" t="s">
         <v>356</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -5222,11 +5252,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T30" sqref="T30"/>
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB1" sqref="AB1:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5259,7 +5289,7 @@
     <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5341,8 +5371,11 @@
       <c r="AA1" s="7" t="s">
         <v>265</v>
       </c>
+      <c r="AB1" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -5420,6 +5453,9 @@
       </c>
       <c r="AA2" s="15" t="s">
         <v>343</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -5434,10 +5470,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:AT5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1:AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5486,7 +5522,7 @@
     <col min="44" max="44" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -5622,8 +5658,11 @@
       <c r="AS1" s="3" t="s">
         <v>499</v>
       </c>
+      <c r="AT1" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -5759,8 +5798,11 @@
       <c r="AS2" s="1" t="s">
         <v>518</v>
       </c>
+      <c r="AT2" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AQ5" s="34"/>
     </row>
   </sheetData>
@@ -5775,9 +5817,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AQ2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5823,7 +5867,7 @@
     <col min="42" max="42" width="23.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -5950,8 +5994,11 @@
       <c r="AP1" s="3" t="s">
         <v>434</v>
       </c>
+      <c r="AQ1" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -6075,6 +6122,9 @@
       </c>
       <c r="AP2" s="1" t="s">
         <v>567</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -6089,10 +6139,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6105,7 +6155,7 @@
     <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6124,8 +6174,11 @@
       <c r="F1" s="3" t="s">
         <v>570</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -6143,6 +6196,9 @@
       </c>
       <c r="F2" s="1">
         <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -6160,8 +6216,8 @@
   <dimension ref="A1:CW2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A38" sqref="A38"/>
+      <pane xSplit="2" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD1" sqref="AD1:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6354,6 +6410,9 @@
       <c r="AC1" s="14" t="s">
         <v>497</v>
       </c>
+      <c r="AD1" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="AX1" s="37"/>
       <c r="AY1" s="37"/>
       <c r="AZ1" s="37"/>
@@ -6492,6 +6551,9 @@
       <c r="AC2" s="1" t="s">
         <v>516</v>
       </c>
+      <c r="AD2" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
